--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H2">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I2">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J2">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>10.577143</v>
+        <v>16.055739</v>
       </c>
       <c r="N2">
-        <v>31.731429</v>
+        <v>48.167217</v>
       </c>
       <c r="O2">
-        <v>0.2954534031561419</v>
+        <v>0.3924791516302356</v>
       </c>
       <c r="P2">
-        <v>0.2954534031561419</v>
+        <v>0.3924791516302356</v>
       </c>
       <c r="Q2">
-        <v>857.3660307740536</v>
+        <v>1911.941729916498</v>
       </c>
       <c r="R2">
-        <v>7716.294276966481</v>
+        <v>17207.47556924848</v>
       </c>
       <c r="S2">
-        <v>0.1047623665412957</v>
+        <v>0.1694774310867459</v>
       </c>
       <c r="T2">
-        <v>0.1047623665412957</v>
+        <v>0.1694774310867458</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H3">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I3">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J3">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>48.528635</v>
       </c>
       <c r="O3">
-        <v>0.4518532827901404</v>
+        <v>0.3954240805436893</v>
       </c>
       <c r="P3">
-        <v>0.4518532827901404</v>
+        <v>0.3954240805436893</v>
       </c>
       <c r="Q3">
-        <v>1311.217442140183</v>
+        <v>1926.287797619412</v>
       </c>
       <c r="R3">
-        <v>11800.95697926164</v>
+        <v>17336.59017857471</v>
       </c>
       <c r="S3">
-        <v>0.1602188999310037</v>
+        <v>0.1707490884089555</v>
       </c>
       <c r="T3">
-        <v>0.1602188999310038</v>
+        <v>0.1707490884089554</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.05837566666666</v>
+        <v>119.0815153333333</v>
       </c>
       <c r="H4">
-        <v>243.175127</v>
+        <v>357.244546</v>
       </c>
       <c r="I4">
-        <v>0.3545816884225584</v>
+        <v>0.431812569872284</v>
       </c>
       <c r="J4">
-        <v>0.3545816884225585</v>
+        <v>0.4318125698722839</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.046344666666666</v>
+        <v>8.676563666666667</v>
       </c>
       <c r="N4">
-        <v>27.139034</v>
+        <v>26.029691</v>
       </c>
       <c r="O4">
-        <v>0.2526933140537176</v>
+        <v>0.2120967678260751</v>
       </c>
       <c r="P4">
-        <v>0.2526933140537176</v>
+        <v>0.2120967678260751</v>
       </c>
       <c r="Q4">
-        <v>733.2820044008131</v>
+        <v>1033.21834931281</v>
       </c>
       <c r="R4">
-        <v>6599.538039607317</v>
+        <v>9298.965143815287</v>
       </c>
       <c r="S4">
-        <v>0.08960042195025902</v>
+        <v>0.09158605037658267</v>
       </c>
       <c r="T4">
-        <v>0.08960042195025904</v>
+        <v>0.09158605037658264</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>369.054756</v>
       </c>
       <c r="I5">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J5">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>10.577143</v>
+        <v>16.055739</v>
       </c>
       <c r="N5">
-        <v>31.731429</v>
+        <v>48.167217</v>
       </c>
       <c r="O5">
-        <v>0.2954534031561419</v>
+        <v>0.3924791516302356</v>
       </c>
       <c r="P5">
-        <v>0.2954534031561419</v>
+        <v>0.3924791516302356</v>
       </c>
       <c r="Q5">
-        <v>1301.181643014036</v>
+        <v>1975.148946348228</v>
       </c>
       <c r="R5">
-        <v>11710.63478712632</v>
+        <v>17776.34051713405</v>
       </c>
       <c r="S5">
-        <v>0.1589926161398918</v>
+        <v>0.1750802151566669</v>
       </c>
       <c r="T5">
-        <v>0.1589926161398918</v>
+        <v>0.1750802151566669</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>369.054756</v>
       </c>
       <c r="I6">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J6">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>48.528635</v>
       </c>
       <c r="O6">
-        <v>0.4518532827901404</v>
+        <v>0.3954240805436893</v>
       </c>
       <c r="P6">
-        <v>0.4518532827901404</v>
+        <v>0.3954240805436893</v>
       </c>
       <c r="Q6">
         <v>1989.96928321534</v>
@@ -821,10 +821,10 @@
         <v>17909.72354893806</v>
       </c>
       <c r="S6">
-        <v>0.2431562296279792</v>
+        <v>0.1763939124209597</v>
       </c>
       <c r="T6">
-        <v>0.2431562296279793</v>
+        <v>0.1763939124209596</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>369.054756</v>
       </c>
       <c r="I7">
-        <v>0.5381309351710767</v>
+        <v>0.4460879372303943</v>
       </c>
       <c r="J7">
-        <v>0.5381309351710768</v>
+        <v>0.4460879372303942</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.046344666666666</v>
+        <v>8.676563666666667</v>
       </c>
       <c r="N7">
-        <v>27.139034</v>
+        <v>26.029691</v>
       </c>
       <c r="O7">
-        <v>0.2526933140537176</v>
+        <v>0.2120967678260751</v>
       </c>
       <c r="P7">
-        <v>0.2526933140537176</v>
+        <v>0.2120967678260751</v>
       </c>
       <c r="Q7">
-        <v>1112.865507882856</v>
+        <v>1067.375695640044</v>
       </c>
       <c r="R7">
-        <v>10015.7895709457</v>
+        <v>9606.381260760396</v>
       </c>
       <c r="S7">
-        <v>0.1359820894032057</v>
+        <v>0.09461380965276772</v>
       </c>
       <c r="T7">
-        <v>0.1359820894032057</v>
+        <v>0.09461380965276769</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H8">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I8">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J8">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>10.577143</v>
+        <v>16.055739</v>
       </c>
       <c r="N8">
-        <v>31.731429</v>
+        <v>48.167217</v>
       </c>
       <c r="O8">
-        <v>0.2954534031561419</v>
+        <v>0.3924791516302356</v>
       </c>
       <c r="P8">
-        <v>0.2954534031561419</v>
+        <v>0.3924791516302356</v>
       </c>
       <c r="Q8">
-        <v>255.5832346748186</v>
+        <v>537.976376654157</v>
       </c>
       <c r="R8">
-        <v>2300.249112073368</v>
+        <v>4841.787389887413</v>
       </c>
       <c r="S8">
-        <v>0.03122995727815304</v>
+        <v>0.04768704656322559</v>
       </c>
       <c r="T8">
-        <v>0.03122995727815305</v>
+        <v>0.04768704656322557</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H9">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I9">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J9">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>48.528635</v>
       </c>
       <c r="O9">
-        <v>0.4518532827901404</v>
+        <v>0.3954240805436893</v>
       </c>
       <c r="P9">
-        <v>0.4518532827901404</v>
+        <v>0.3954240805436893</v>
       </c>
       <c r="Q9">
-        <v>390.8776219203244</v>
+        <v>542.0130297598906</v>
       </c>
       <c r="R9">
-        <v>3517.89859728292</v>
+        <v>4878.117267839015</v>
       </c>
       <c r="S9">
-        <v>0.04776170647143192</v>
+        <v>0.04804486165133392</v>
       </c>
       <c r="T9">
-        <v>0.04776170647143194</v>
+        <v>0.0480448616513339</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.16373066666667</v>
+        <v>33.50679633333333</v>
       </c>
       <c r="H10">
-        <v>72.491192</v>
+        <v>100.520389</v>
       </c>
       <c r="I10">
-        <v>0.1057018025331343</v>
+        <v>0.1215021138451521</v>
       </c>
       <c r="J10">
-        <v>0.1057018025331344</v>
+        <v>0.121502113845152</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.046344666666666</v>
+        <v>8.676563666666667</v>
       </c>
       <c r="N10">
-        <v>27.139034</v>
+        <v>26.029691</v>
       </c>
       <c r="O10">
-        <v>0.2526933140537176</v>
+        <v>0.2120967678260751</v>
       </c>
       <c r="P10">
-        <v>0.2526933140537176</v>
+        <v>0.2120967678260751</v>
       </c>
       <c r="Q10">
-        <v>218.5934360431698</v>
+        <v>290.7238516521999</v>
       </c>
       <c r="R10">
-        <v>1967.340924388528</v>
+        <v>2616.514664869799</v>
       </c>
       <c r="S10">
-        <v>0.02671013878354936</v>
+        <v>0.02577020563059257</v>
       </c>
       <c r="T10">
-        <v>0.02671013878354937</v>
+        <v>0.02577020563059256</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H11">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I11">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J11">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>10.577143</v>
+        <v>16.055739</v>
       </c>
       <c r="N11">
-        <v>31.731429</v>
+        <v>48.167217</v>
       </c>
       <c r="O11">
-        <v>0.2954534031561419</v>
+        <v>0.3924791516302356</v>
       </c>
       <c r="P11">
-        <v>0.2954534031561419</v>
+        <v>0.3924791516302356</v>
       </c>
       <c r="Q11">
-        <v>3.833861766066666</v>
+        <v>2.64502244286</v>
       </c>
       <c r="R11">
-        <v>34.5047558946</v>
+        <v>23.80520198574</v>
       </c>
       <c r="S11">
-        <v>0.0004684631968013937</v>
+        <v>0.000234458823597244</v>
       </c>
       <c r="T11">
-        <v>0.0004684631968013938</v>
+        <v>0.000234458823597244</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H12">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I12">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J12">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>48.528635</v>
       </c>
       <c r="O12">
-        <v>0.4518532827901404</v>
+        <v>0.3954240805436893</v>
       </c>
       <c r="P12">
-        <v>0.4518532827901404</v>
+        <v>0.3954240805436893</v>
       </c>
       <c r="Q12">
-        <v>5.863337522111111</v>
+        <v>2.664869109966667</v>
       </c>
       <c r="R12">
-        <v>52.770037699</v>
+        <v>23.9838219897</v>
       </c>
       <c r="S12">
-        <v>0.0007164467597254446</v>
+        <v>0.0002362180624402702</v>
       </c>
       <c r="T12">
-        <v>0.0007164467597254447</v>
+        <v>0.0002362180624402702</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3624666666666667</v>
+        <v>0.16474</v>
       </c>
       <c r="H13">
-        <v>1.0874</v>
+        <v>0.49422</v>
       </c>
       <c r="I13">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="J13">
-        <v>0.001585573873230423</v>
+        <v>0.000597379052169715</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.046344666666666</v>
+        <v>8.676563666666667</v>
       </c>
       <c r="N13">
-        <v>27.139034</v>
+        <v>26.029691</v>
       </c>
       <c r="O13">
-        <v>0.2526933140537176</v>
+        <v>0.2120967678260751</v>
       </c>
       <c r="P13">
-        <v>0.2526933140537176</v>
+        <v>0.2120967678260751</v>
       </c>
       <c r="Q13">
-        <v>3.278998396844444</v>
+        <v>1.429377098446667</v>
       </c>
       <c r="R13">
-        <v>29.5109855716</v>
+        <v>12.86439388602</v>
       </c>
       <c r="S13">
-        <v>0.0004006639167035848</v>
+        <v>0.0001267021661322009</v>
       </c>
       <c r="T13">
-        <v>0.0004006639167035848</v>
+        <v>0.0001267021661322009</v>
       </c>
     </row>
   </sheetData>
